--- a/visualization/actors_over_time.xlsx
+++ b/visualization/actors_over_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annalieb/Documents/Thesis/Senior-Thesis/visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB498073-EF66-A446-B1D9-4A7BCA6E2F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC65B7E5-C069-ED4E-9A85-2DA6F9E85404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -379,7 +379,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1067,7 +1067,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1077,7 +1077,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1100,7 +1100,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1197,7 +1197,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200">
+                  <a:rPr lang="en-US" sz="1000">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1205,27 +1205,14 @@
                   <a:t>Primary actor label</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                  <a:rPr lang="en-US" sz="1000" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> </a:t>
+                  <a:t> proportion</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>proportion</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1200">
+                <a:endParaRPr lang="en-US" sz="1000">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1314,7 +1301,7 @@
           <c:x val="0.13319237556725236"/>
           <c:y val="0.7653682616556563"/>
           <c:w val="0.8115611963991326"/>
-          <c:h val="0.18868992022040496"/>
+          <c:h val="0.1661438489115272"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1330,7 +1317,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1946,13 +1933,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>151967</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2267,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="287" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
